--- a/Documentation/V_Cycle Process/2.0 Design/State Diagrams/Transitions.xlsx
+++ b/Documentation/V_Cycle Process/2.0 Design/State Diagrams/Transitions.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="521" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WindowLifterSM" sheetId="1" r:id="rId1"/>
     <sheet name="ButtonSM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
   <si>
     <t>Transition number</t>
   </si>
@@ -33,13 +33,175 @@
   </si>
   <si>
     <t>Actions</t>
+  </si>
+  <si>
+    <t>&lt;1&gt;</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Up Validation</t>
+  </si>
+  <si>
+    <t>&lt;2&gt;</t>
+  </si>
+  <si>
+    <t>buttonsmIdleState()</t>
+  </si>
+  <si>
+    <t>[lub_ButtonTimeCounter &gt;= TEN_MS]</t>
+  </si>
+  <si>
+    <t>rub_ButtonStatus = ANTIPINCH_BUTTON_PRESS</t>
+  </si>
+  <si>
+    <t>rub_ButtonStatus = UP_BUTTON_PRESS</t>
+  </si>
+  <si>
+    <t>rub_ButtonStatus = DOWN_BUTTON_PRESS</t>
+  </si>
+  <si>
+    <t>Up Button Valid</t>
+  </si>
+  <si>
+    <t>Down Button Valid</t>
+  </si>
+  <si>
+    <t>Antipinch Button Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antipinch Validation</t>
+  </si>
+  <si>
+    <t>Validation Loop</t>
+  </si>
+  <si>
+    <t>Down Validation</t>
+  </si>
+  <si>
+    <t>lub_ButtonTimeCounter++</t>
+  </si>
+  <si>
+    <t>[(button_CheckButtonUp() == BTN_ACTIVE) &amp;&amp; (button_CheckButtonDown() == BTN_INACTIVE)]</t>
+  </si>
+  <si>
+    <t>[(button_CheckButtonDown() == BTN_ACTIVE) &amp;&amp; (button_CheckButtonUp() == BTN_INACTIVE)]</t>
+  </si>
+  <si>
+    <t>[button_CheckButtonAntipinch() == BTN_ACTIVE]</t>
+  </si>
+  <si>
+    <t>[rub_ButtonStatus == DOWN_BUTTON_PRESS]</t>
+  </si>
+  <si>
+    <t>[rub_ButtonStatus == UP_BUTTON_PRESS]</t>
+  </si>
+  <si>
+    <t>[(rub_ButtonStatus == ANTIPINCH_BUTTON_PRESS) &amp;&amp; ((rub_State == ONE_TOUCH_UP) || (rub_State == UP_NORMAL))]</t>
+  </si>
+  <si>
+    <t>[lub_Level == BOTTON]</t>
+  </si>
+  <si>
+    <t>windowlifter_DownNormal()</t>
+  </si>
+  <si>
+    <t>rul_BlockCounter++</t>
+  </si>
+  <si>
+    <t>rub_ButtonStatus == UP_BUTTON_PRESS</t>
+  </si>
+  <si>
+    <t>[rub_UpButtonCounter &gt; FIVE_HUNDRED_MS]</t>
+  </si>
+  <si>
+    <t>rub_UpButtonCounter++</t>
+  </si>
+  <si>
+    <t>rub_DownButtonCounter++</t>
+  </si>
+  <si>
+    <t>windowlifter_UpNormal()</t>
+  </si>
+  <si>
+    <t>[rub_ButtonStatus == ANTIPINCH_BUTTON_PRESS]</t>
+  </si>
+  <si>
+    <t>Up Normal</t>
+  </si>
+  <si>
+    <t>[lub_Level == TOP]</t>
+  </si>
+  <si>
+    <t>Idle Loop</t>
+  </si>
+  <si>
+    <t>One Touch Up Loop</t>
+  </si>
+  <si>
+    <t>Up Normal Loop</t>
+  </si>
+  <si>
+    <t>One Touch Down Loop</t>
+  </si>
+  <si>
+    <t>Down Normal Loop</t>
+  </si>
+  <si>
+    <t>[rub_ButtonStatus == Down_BUTTON_PRESS]</t>
+  </si>
+  <si>
+    <t>Down Normal</t>
+  </si>
+  <si>
+    <t>Antipinch</t>
+  </si>
+  <si>
+    <t>One Touch Up</t>
+  </si>
+  <si>
+    <t>One Touch Down</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Go to Idle</t>
+  </si>
+  <si>
+    <t>Change to Downward movement</t>
+  </si>
+  <si>
+    <t>Change to Upward movement</t>
+  </si>
+  <si>
+    <t>&lt;4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;5&gt;</t>
+  </si>
+  <si>
+    <t>&lt;6&gt;</t>
+  </si>
+  <si>
+    <t>rub_UpTransitionCounter++</t>
+  </si>
+  <si>
+    <t>rub_DownTransitionCounter++</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +218,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -161,30 +336,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,223 +694,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="16">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="B4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="B6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="B14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="B15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="B16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="B17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="B18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="B19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="B20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="B21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="B22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -722,133 +1124,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
